--- a/Context/Context.xlsx
+++ b/Context/Context.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_Lumina\Phyton\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4C35CC93-5B48-4335-8EAF-8CA34033B446}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D4ABEA8-FB65-4495-82D1-F2D6536955FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="51480" yWindow="2445" windowWidth="29040" windowHeight="15720" xr2:uid="{F8B319AD-EDD9-4065-B5E6-DBA2DD8C8848}"/>
   </bookViews>
@@ -50,18 +50,26 @@
     <t>uruguai</t>
   </si>
   <si>
-    <t>pais</t>
+    <t>nome de Pais</t>
   </si>
   <si>
-    <t>quantidade de premios nobel</t>
+    <t>Prêmios nobel</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
@@ -77,7 +85,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -85,12 +93,29 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -432,48 +457,52 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="31.77734375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+      <c r="A1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="1">
         <v>80</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="1">
         <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+      <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="1">
         <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+      <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="1">
         <v>20</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Context/Context.xlsx
+++ b/Context/Context.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_Lumina\Phyton\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D4ABEA8-FB65-4495-82D1-F2D6536955FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{790FDEF0-37EC-498B-9291-441F1B167FE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="51480" yWindow="2445" windowWidth="29040" windowHeight="15720" xr2:uid="{F8B319AD-EDD9-4065-B5E6-DBA2DD8C8848}"/>
   </bookViews>
@@ -50,10 +50,10 @@
     <t>uruguai</t>
   </si>
   <si>
-    <t>nome de Pais</t>
+    <t>Nome do Pais</t>
   </si>
   <si>
-    <t>Prêmios nobel</t>
+    <t>Prêmios Nobel</t>
   </si>
 </sst>
 </file>
@@ -452,12 +452,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF99A20F-99ED-4407-A03A-756E4FA1049A}">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="1" max="1" width="12.77734375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="31.77734375" customWidth="1"/>
   </cols>
   <sheetData>

--- a/Context/Context.xlsx
+++ b/Context/Context.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_Lumina\Phyton\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{790FDEF0-37EC-498B-9291-441F1B167FE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FD28C1E-621E-4EBD-B122-E445D29C7D4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="51480" yWindow="2445" windowWidth="29040" windowHeight="15720" xr2:uid="{F8B319AD-EDD9-4065-B5E6-DBA2DD8C8848}"/>
   </bookViews>
@@ -50,10 +50,10 @@
     <t>uruguai</t>
   </si>
   <si>
-    <t>Nome do Pais</t>
+    <t>Pais</t>
   </si>
   <si>
-    <t>Prêmios Nobel</t>
+    <t>Quantidade</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF99A20F-99ED-4407-A03A-756E4FA1049A}">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
